--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9e3e25d9d7b2746/Escritorio/Labs_Jorge/Mid_Term_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d50a533e7571b85/IronHack/DataAnalytics/IronHack_DataLab_Frederik/Week 1/Midterm_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_0921E3EBE2EB0833832C4CC3A5AE125B791CF808" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C590AC1B-9E7F-4B37-9932-1E867789CBC9}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_0921E3EBE2EB0833832C4CC3A5AE125B791CF808" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2399301-7759-4764-9482-56587865A5BD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="20159" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -815,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1154,15 +1154,15 @@
   <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1204,1158 +1204,1152 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>215</v>
       </c>
